--- a/JupyterNotebooks/AveragedIntensities-SRP/GossA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/GossA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -68,6 +80,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -449,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -519,8 +534,11 @@
       <c r="V1" s="1">
         <v>20</v>
       </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -528,67 +546,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -596,67 +617,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9708213256484149</v>
+        <v>0.9840417867435158</v>
       </c>
       <c r="D3">
-        <v>0.8829322766570605</v>
+        <v>0.8732204610951009</v>
       </c>
       <c r="E3">
-        <v>1.112766570605187</v>
+        <v>1.110965417867435</v>
       </c>
       <c r="F3">
-        <v>0.9574711815561959</v>
+        <v>0.9556340057636887</v>
       </c>
       <c r="G3">
-        <v>0.9708213256484149</v>
+        <v>0.9840417867435158</v>
       </c>
       <c r="H3">
-        <v>0.8829322766570605</v>
+        <v>0.8732204610951009</v>
       </c>
       <c r="I3">
-        <v>1.056455331412104</v>
+        <v>1.059466858789625</v>
       </c>
       <c r="J3">
-        <v>1.009099423631124</v>
+        <v>1.004690201729107</v>
       </c>
       <c r="K3">
-        <v>0.9821974063400576</v>
+        <v>0.9870317002881844</v>
       </c>
       <c r="L3">
-        <v>0.9237175792507205</v>
+        <v>0.9169236311239193</v>
       </c>
       <c r="M3">
-        <v>0.9708213256484149</v>
+        <v>0.9840417867435158</v>
       </c>
       <c r="N3">
-        <v>0.9708213256484149</v>
+        <v>0.9840417867435158</v>
       </c>
       <c r="O3">
-        <v>0.9978494236311239</v>
+        <v>1.110965417867435</v>
       </c>
       <c r="P3">
-        <v>1.035118876080692</v>
+        <v>0.992092939481268</v>
       </c>
       <c r="Q3">
-        <v>0.9888400576368875</v>
+        <v>1.033299711815562</v>
       </c>
       <c r="R3">
-        <v>0.9843900096061479</v>
+        <v>0.9894092219020173</v>
       </c>
       <c r="S3">
-        <v>0.9888400576368875</v>
+        <v>0.9799399615754082</v>
       </c>
       <c r="T3">
-        <v>0.9809978386167146</v>
+        <v>0.9894092219020173</v>
       </c>
       <c r="U3">
-        <v>0.9789625360230547</v>
+        <v>0.9809654178674352</v>
       </c>
       <c r="V3">
-        <v>0.986932636887608</v>
+        <v>0.9815806916426514</v>
+      </c>
+      <c r="W3">
+        <v>0.9864967579250721</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -664,67 +688,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00927945255555</v>
+        <v>1.014622979784832</v>
       </c>
       <c r="D4">
-        <v>0.997343698746157</v>
+        <v>0.9950939054233108</v>
       </c>
       <c r="E4">
-        <v>0.9881173382829295</v>
+        <v>0.9870975407402144</v>
       </c>
       <c r="F4">
-        <v>0.9918793496767397</v>
+        <v>0.9908578525858583</v>
       </c>
       <c r="G4">
-        <v>1.00927945255555</v>
+        <v>1.014622979784832</v>
       </c>
       <c r="H4">
-        <v>0.997343698746157</v>
+        <v>0.9950939054233108</v>
       </c>
       <c r="I4">
-        <v>0.993662778924272</v>
+        <v>0.9947015877273128</v>
       </c>
       <c r="J4">
-        <v>0.9902226234605495</v>
+        <v>0.9884275221326881</v>
       </c>
       <c r="K4">
-        <v>0.9974492719252781</v>
+        <v>0.9991745937072521</v>
       </c>
       <c r="L4">
-        <v>0.991264665924963</v>
+        <v>0.9891407001886157</v>
       </c>
       <c r="M4">
-        <v>1.009260590371187</v>
+        <v>1.01460776834583</v>
       </c>
       <c r="N4">
-        <v>1.00927945255555</v>
+        <v>1.014622979784832</v>
       </c>
       <c r="O4">
-        <v>0.9927305185145432</v>
+        <v>0.9870975407402144</v>
       </c>
       <c r="P4">
-        <v>0.9899983439798345</v>
+        <v>0.9910957230817625</v>
       </c>
       <c r="Q4">
-        <v>0.9982468298615453</v>
+        <v>0.9889776966630364</v>
       </c>
       <c r="R4">
-        <v>0.9924467955686088</v>
+        <v>0.9989381419827855</v>
       </c>
       <c r="S4">
-        <v>0.9982468298615456</v>
+        <v>0.9910164329164611</v>
       </c>
       <c r="T4">
-        <v>0.996654959815344</v>
+        <v>0.9989381419827855</v>
       </c>
       <c r="U4">
-        <v>0.9991798583633852</v>
+        <v>0.9969180696335538</v>
       </c>
       <c r="V4">
-        <v>0.9949023974370548</v>
+        <v>1.000459051663809</v>
+      </c>
+      <c r="W4">
+        <v>0.9948895852862605</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -732,67 +759,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.026084356962194</v>
+        <v>1.026991197513424</v>
       </c>
       <c r="D5">
-        <v>0.994562177077013</v>
+        <v>0.9950887042466666</v>
       </c>
       <c r="E5">
-        <v>0.9840444595309742</v>
+        <v>0.9833508948227769</v>
       </c>
       <c r="F5">
-        <v>0.9888748615070579</v>
+        <v>0.9888510106437166</v>
       </c>
       <c r="G5">
-        <v>1.026084356962194</v>
+        <v>1.026991197513424</v>
       </c>
       <c r="H5">
-        <v>0.994562177077013</v>
+        <v>0.9950887042466666</v>
       </c>
       <c r="I5">
-        <v>0.9957177778998587</v>
+        <v>0.9956971765054171</v>
       </c>
       <c r="J5">
-        <v>0.9837145262741712</v>
+        <v>0.9834554141958974</v>
       </c>
       <c r="K5">
-        <v>1.002006258402388</v>
+        <v>1.002219417062731</v>
       </c>
       <c r="L5">
-        <v>0.9860999433511495</v>
+        <v>0.9864386844527027</v>
       </c>
       <c r="M5">
-        <v>1.026110783133165</v>
+        <v>1.027020112578161</v>
       </c>
       <c r="N5">
-        <v>1.026084356962194</v>
+        <v>1.026991197513424</v>
       </c>
       <c r="O5">
-        <v>0.9893033183039937</v>
+        <v>0.9833508948227769</v>
       </c>
       <c r="P5">
-        <v>0.9864596605190161</v>
+        <v>0.9892197995347218</v>
       </c>
       <c r="Q5">
-        <v>1.001563664523394</v>
+        <v>0.9861009527332467</v>
       </c>
       <c r="R5">
-        <v>0.9891604993716818</v>
+        <v>1.001810265527623</v>
       </c>
       <c r="S5">
-        <v>1.001563664523394</v>
+        <v>0.9890968699043867</v>
       </c>
       <c r="T5">
-        <v>0.9983914637693097</v>
+        <v>1.001810265527623</v>
       </c>
       <c r="U5">
-        <v>1.003930042407887</v>
+        <v>0.9985704518066461</v>
       </c>
       <c r="V5">
-        <v>0.9951380451256009</v>
+        <v>1.004254600948002</v>
+      </c>
+      <c r="W5">
+        <v>0.9952615624304165</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -800,67 +830,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9944619715233093</v>
+        <v>0.9941638581492266</v>
       </c>
       <c r="D6">
-        <v>0.9928390660821591</v>
+        <v>0.994619251703808</v>
       </c>
       <c r="E6">
-        <v>0.9972451879411162</v>
+        <v>0.9962784887745791</v>
       </c>
       <c r="F6">
-        <v>0.992813056592767</v>
+        <v>0.9931141819753077</v>
       </c>
       <c r="G6">
-        <v>0.9944619715233093</v>
+        <v>0.9941638581492266</v>
       </c>
       <c r="H6">
-        <v>0.9928390660821591</v>
+        <v>0.994619251703808</v>
       </c>
       <c r="I6">
-        <v>0.9954993254204566</v>
+        <v>0.9947855173201016</v>
       </c>
       <c r="J6">
-        <v>0.9960398008791278</v>
+        <v>0.9961144329414382</v>
       </c>
       <c r="K6">
-        <v>0.9938750894031737</v>
+        <v>0.9936797700849543</v>
       </c>
       <c r="L6">
-        <v>0.9910333934598466</v>
+        <v>0.9921848445813087</v>
       </c>
       <c r="M6">
-        <v>0.9944536385537789</v>
+        <v>0.9941532572641268</v>
       </c>
       <c r="N6">
-        <v>0.9944619715233093</v>
+        <v>0.9941638581492266</v>
       </c>
       <c r="O6">
-        <v>0.9950421270116376</v>
+        <v>0.9962784887745791</v>
       </c>
       <c r="P6">
-        <v>0.9950291222669416</v>
+        <v>0.9954488702391936</v>
       </c>
       <c r="Q6">
-        <v>0.9948487418488615</v>
+        <v>0.9946963353749434</v>
       </c>
       <c r="R6">
-        <v>0.9942991035386807</v>
+        <v>0.9950205328758712</v>
       </c>
       <c r="S6">
-        <v>0.9948487418488616</v>
+        <v>0.9946706408178984</v>
       </c>
       <c r="T6">
-        <v>0.9943398205348379</v>
+        <v>0.9950205328758712</v>
       </c>
       <c r="U6">
-        <v>0.9943642507325322</v>
+        <v>0.9945439451507303</v>
       </c>
       <c r="V6">
-        <v>0.9942258614127446</v>
+        <v>0.9944679277504296</v>
+      </c>
+      <c r="W6">
+        <v>0.9943675431913406</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -868,64 +901,351 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9936876058048701</v>
+        <v>2.243664783995547</v>
       </c>
       <c r="D7">
-        <v>0.9933137835985736</v>
+        <v>0.1435974566754628</v>
       </c>
       <c r="E7">
-        <v>0.9954199582472588</v>
+        <v>0.8944693780818429</v>
       </c>
       <c r="F7">
-        <v>0.9938893334660257</v>
+        <v>0.7641082459616358</v>
       </c>
       <c r="G7">
-        <v>0.9936876058048701</v>
+        <v>2.243664783995547</v>
       </c>
       <c r="H7">
-        <v>0.9933137835985736</v>
+        <v>0.1435974566754628</v>
       </c>
       <c r="I7">
-        <v>0.9943988124178552</v>
+        <v>1.287896716225035</v>
       </c>
       <c r="J7">
-        <v>0.9961554661360671</v>
+        <v>0.5982434962969629</v>
       </c>
       <c r="K7">
-        <v>0.9942538958394513</v>
+        <v>1.398067464417403</v>
       </c>
       <c r="L7">
-        <v>0.9920335538727213</v>
+        <v>0.3622893947295112</v>
       </c>
       <c r="M7">
-        <v>0.9936943093737367</v>
+        <v>2.24313625412751</v>
       </c>
       <c r="N7">
-        <v>0.9936876058048701</v>
+        <v>2.243664783995547</v>
       </c>
       <c r="O7">
-        <v>0.9943668709229162</v>
+        <v>0.8944693780818429</v>
       </c>
       <c r="P7">
-        <v>0.9946546458566423</v>
+        <v>0.5190334173786528</v>
       </c>
       <c r="Q7">
-        <v>0.9941404492169008</v>
+        <v>0.8292888120217394</v>
       </c>
       <c r="R7">
-        <v>0.9942076917706194</v>
+        <v>1.093910539584284</v>
       </c>
       <c r="S7">
-        <v>0.9941404492169008</v>
+        <v>0.6007250269063138</v>
       </c>
       <c r="T7">
-        <v>0.994077670279182</v>
+        <v>1.093910539584284</v>
       </c>
       <c r="U7">
-        <v>0.9939996573843196</v>
+        <v>1.011459966178622</v>
       </c>
       <c r="V7">
-        <v>0.9941440511728529</v>
+        <v>1.257900929742007</v>
+      </c>
+      <c r="W7">
+        <v>0.9615421170479252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.9800356093511665</v>
+      </c>
+      <c r="D8">
+        <v>0.5449080945638909</v>
+      </c>
+      <c r="E8">
+        <v>1.22692954780446</v>
+      </c>
+      <c r="F8">
+        <v>0.9446111129847837</v>
+      </c>
+      <c r="G8">
+        <v>0.9800356093511665</v>
+      </c>
+      <c r="H8">
+        <v>0.5449080945638909</v>
+      </c>
+      <c r="I8">
+        <v>1.154932885282359</v>
+      </c>
+      <c r="J8">
+        <v>1.003821204405187</v>
+      </c>
+      <c r="K8">
+        <v>1.041304524754317</v>
+      </c>
+      <c r="L8">
+        <v>0.7515175661122454</v>
+      </c>
+      <c r="M8">
+        <v>0.9800540954002057</v>
+      </c>
+      <c r="N8">
+        <v>0.9800356093511665</v>
+      </c>
+      <c r="O8">
+        <v>1.22692954780446</v>
+      </c>
+      <c r="P8">
+        <v>0.8859188211841756</v>
+      </c>
+      <c r="Q8">
+        <v>1.085770330394622</v>
+      </c>
+      <c r="R8">
+        <v>0.9172910839065059</v>
+      </c>
+      <c r="S8">
+        <v>0.905482918451045</v>
+      </c>
+      <c r="T8">
+        <v>0.9172910839065059</v>
+      </c>
+      <c r="U8">
+        <v>0.9241210911760754</v>
+      </c>
+      <c r="V8">
+        <v>0.9353039948110936</v>
+      </c>
+      <c r="W8">
+        <v>0.9560075681573011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D9">
+        <v>3.94</v>
+      </c>
+      <c r="E9">
+        <v>0.21</v>
+      </c>
+      <c r="F9">
+        <v>1.3</v>
+      </c>
+      <c r="G9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H9">
+        <v>3.94</v>
+      </c>
+      <c r="I9">
+        <v>0.18</v>
+      </c>
+      <c r="J9">
+        <v>1.14</v>
+      </c>
+      <c r="K9">
+        <v>0.46</v>
+      </c>
+      <c r="L9">
+        <v>2.52</v>
+      </c>
+      <c r="M9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.21</v>
+      </c>
+      <c r="P9">
+        <v>2.075</v>
+      </c>
+      <c r="Q9">
+        <v>0.755</v>
+      </c>
+      <c r="R9">
+        <v>1.406666666666667</v>
+      </c>
+      <c r="S9">
+        <v>1.816666666666667</v>
+      </c>
+      <c r="T9">
+        <v>1.406666666666667</v>
+      </c>
+      <c r="U9">
+        <v>1.38</v>
+      </c>
+      <c r="V9">
+        <v>1.118</v>
+      </c>
+      <c r="W9">
+        <v>1.2275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.67</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
+      </c>
+      <c r="E10">
+        <v>1.97</v>
+      </c>
+      <c r="F10">
+        <v>0.7</v>
+      </c>
+      <c r="G10">
+        <v>0.67</v>
+      </c>
+      <c r="H10">
+        <v>0.21</v>
+      </c>
+      <c r="I10">
+        <v>1.52</v>
+      </c>
+      <c r="J10">
+        <v>1.16</v>
+      </c>
+      <c r="K10">
+        <v>0.86</v>
+      </c>
+      <c r="L10">
+        <v>0.46</v>
+      </c>
+      <c r="M10">
+        <v>0.67</v>
+      </c>
+      <c r="N10">
+        <v>0.67</v>
+      </c>
+      <c r="O10">
+        <v>1.97</v>
+      </c>
+      <c r="P10">
+        <v>1.09</v>
+      </c>
+      <c r="Q10">
+        <v>1.335</v>
+      </c>
+      <c r="R10">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="S10">
+        <v>0.96</v>
+      </c>
+      <c r="T10">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.8875</v>
+      </c>
+      <c r="V10">
+        <v>0.844</v>
+      </c>
+      <c r="W10">
+        <v>0.94375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9990330497856222</v>
+      </c>
+      <c r="D11">
+        <v>0.9974757325517742</v>
+      </c>
+      <c r="E11">
+        <v>0.9915490378394113</v>
+      </c>
+      <c r="F11">
+        <v>0.9933549872629314</v>
+      </c>
+      <c r="G11">
+        <v>0.9990330497856222</v>
+      </c>
+      <c r="H11">
+        <v>0.9974757325517742</v>
+      </c>
+      <c r="I11">
+        <v>0.9931845804783355</v>
+      </c>
+      <c r="J11">
+        <v>0.9942157476082852</v>
+      </c>
+      <c r="K11">
+        <v>0.994935224634625</v>
+      </c>
+      <c r="L11">
+        <v>0.9932631714184019</v>
+      </c>
+      <c r="M11">
+        <v>0.9990350350090685</v>
+      </c>
+      <c r="N11">
+        <v>0.9990330497856222</v>
+      </c>
+      <c r="O11">
+        <v>0.9915490378394113</v>
+      </c>
+      <c r="P11">
+        <v>0.9945123851955928</v>
+      </c>
+      <c r="Q11">
+        <v>0.9924520125511713</v>
+      </c>
+      <c r="R11">
+        <v>0.9960192733922693</v>
+      </c>
+      <c r="S11">
+        <v>0.9941265858847057</v>
+      </c>
+      <c r="T11">
+        <v>0.9960192733922693</v>
+      </c>
+      <c r="U11">
+        <v>0.9953532018599348</v>
+      </c>
+      <c r="V11">
+        <v>0.9960891714450723</v>
+      </c>
+      <c r="W11">
+        <v>0.9946264414474233</v>
       </c>
     </row>
   </sheetData>
